--- a/data-raw/unhcr_2023/iati_humanitarian_scope.xlsx
+++ b/data-raw/unhcr_2023/iati_humanitarian_scope.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,15 +385,10 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>humanitarian_scope_pct</t>
+          <t>humanitarian_scope_desc_eng</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>humanitarian_scope_desc_eng</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>humanitarian_scope_desc_fr</t>
         </is>
@@ -420,7 +415,7 @@
           <t>RREG23</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Venezuela Regional Refugee and Migrant Response Plan (RMRP) 2023</t>
         </is>
@@ -447,7 +442,7 @@
           <t>RREG23</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Venezuela Regional Refugee and Migrant Response Plan (RMRP) 2023</t>
         </is>
@@ -474,7 +469,7 @@
           <t>HCOL23</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Colombia Plan de Respuesta Humanitario 2023</t>
         </is>
@@ -501,7 +496,7 @@
           <t>RREG23</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Venezuela Regional Refugee and Migrant Response Plan (RMRP) 2023</t>
         </is>
@@ -528,7 +523,7 @@
           <t>RREG23</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Venezuela Regional Refugee and Migrant Response Plan (RMRP) 2023</t>
         </is>
@@ -555,7 +550,7 @@
           <t>HGTM23</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Guatemala Plan de Respuesta Humanitario 2023</t>
         </is>
@@ -582,7 +577,7 @@
           <t>HHND23</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Honduras Plan de Respuesta Humanitario 2023</t>
         </is>
@@ -609,7 +604,7 @@
           <t>RREG23</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Venezuela Regional Refugee and Migrant Response Plan (RMRP) 2023</t>
         </is>
@@ -636,7 +631,7 @@
           <t>RREG23</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Venezuela Regional Refugee and Migrant Response Plan (RMRP) 2023</t>
         </is>
@@ -663,7 +658,7 @@
           <t>HSLV23</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>El Salvador Plan de Respuesta Humanitario 2023</t>
         </is>
@@ -690,7 +685,7 @@
           <t>RREG23</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Venezuela Regional Refugee and Migrant Response Plan (RMRP) 2023</t>
         </is>
@@ -717,7 +712,7 @@
           <t>HVEN23</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Venezuela Plan de Respuesta Humanitario 2023</t>
         </is>
@@ -744,7 +739,7 @@
           <t>HAFG23</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Afghanistan Humanitarian Response Plan 2023</t>
         </is>
@@ -771,7 +766,7 @@
           <t>RBGD23</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Rohingya Humanitarian Crisis Joint Response Plan 2023</t>
         </is>
@@ -798,7 +793,7 @@
           <t>RAFG23</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Afghanistan Situation Regional Refugee Response Plan 2023</t>
         </is>
@@ -825,7 +820,7 @@
           <t>HMMR23</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Myanmar Humanitarian Response Plan 2023</t>
         </is>
@@ -852,7 +847,7 @@
           <t>TC-2023-000069-MMR</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Myanmar: Tropical Cyclone</t>
         </is>
@@ -879,7 +874,7 @@
           <t>OPAK23</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Pakistan Floods Response Plan 2023</t>
         </is>
@@ -911,7 +906,7 @@
           <t>PAKISTAN-FLOOD-RESPONSE-2023</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Pakistan Flood Response, UNHCR Supplementary Appeal, September 2022-December 2023</t>
         </is>
@@ -938,7 +933,7 @@
           <t>RAFG23</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Afghanistan Situation Regional Refugee Response Plan 2023</t>
         </is>
@@ -965,7 +960,7 @@
           <t>RAFG23</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Afghanistan Situation Regional Refugee Response Plan 2023</t>
         </is>
@@ -992,7 +987,7 @@
           <t>HBDI23</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Burundi Plan de Réponse Humanitaire 2023</t>
         </is>
@@ -1019,7 +1014,7 @@
           <t>RDRCRRP23</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Democratic Republic of the Congo Regional Refugee Response Plan 2023</t>
         </is>
@@ -1051,7 +1046,7 @@
           <t>ETHIOPIA-EMERGENCY-2023</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Ethiopia, Supplementary Appeal, February-December 2023</t>
         </is>
@@ -1078,7 +1073,7 @@
           <t>HETH23</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Ethiopia Humanitarian Response Plan 2023</t>
         </is>
@@ -1105,7 +1100,7 @@
           <t>RETHKENUGA23</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>South Sudan Regional Refugee Response Plan 2023</t>
         </is>
@@ -1132,7 +1127,7 @@
           <t>RRSDN23</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Sudan Emergency: Regional Refugee Response Plan 2023</t>
         </is>
@@ -1164,7 +1159,7 @@
           <t>SUDAN-EMERGENCY-2023</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Sudan Emergency, UNHCR Supplementary Appeal, May-October 2023</t>
         </is>
@@ -1191,7 +1186,7 @@
           <t>FKEN23</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Kenya Drought Response Plan 2023</t>
         </is>
@@ -1218,7 +1213,7 @@
           <t>RETHKENUGA23</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>South Sudan Regional Refugee Response Plan 2023</t>
         </is>
@@ -1245,7 +1240,7 @@
           <t>RDRCRRP23</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Democratic Republic of the Congo Regional Refugee Response Plan 2023</t>
         </is>
@@ -1272,7 +1267,7 @@
           <t>CE-2023-000066-SDN</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Sudan: Complex Emergency</t>
         </is>
@@ -1299,7 +1294,7 @@
           <t>HSDN23</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Sudan Humanitarian Response Plan 2023</t>
         </is>
@@ -1326,7 +1321,7 @@
           <t>RETHKENUGA23</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>South Sudan Regional Refugee Response Plan 2023</t>
         </is>
@@ -1358,7 +1353,7 @@
           <t>SUDAN-EMERGENCY-2023</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Sudan Emergency, UNHCR Supplementary Appeal, May-October 2023</t>
         </is>
@@ -1385,7 +1380,7 @@
           <t>HSOM23</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Somalia Humanitarian Response Plan 2023</t>
         </is>
@@ -1412,7 +1407,7 @@
           <t>HSSD23</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>South Sudan Humanitarian Response Plan 2023</t>
         </is>
@@ -1439,7 +1434,7 @@
           <t>RRSDN23</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Sudan Emergency: Regional Refugee Response Plan 2023</t>
         </is>
@@ -1471,7 +1466,7 @@
           <t>SUDAN-EMERGENCY-2023</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Sudan Emergency, UNHCR Supplementary Appeal, May-October 2023</t>
         </is>
@@ -1498,7 +1493,7 @@
           <t>RDRCRRP23</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Democratic Republic of the Congo Regional Refugee Response Plan 2023</t>
         </is>
@@ -1525,7 +1520,7 @@
           <t>RDRCRRP23</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Democratic Republic of the Congo Regional Refugee Response Plan 2023</t>
         </is>
@@ -1552,7 +1547,7 @@
           <t>RETHKENUGA23</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>South Sudan Regional Refugee Response Plan 2023</t>
         </is>
@@ -1579,7 +1574,7 @@
           <t>RUKRN23</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Ukraine Situation Regional Refugee Response Plan 2023</t>
         </is>
@@ -1606,7 +1601,7 @@
           <t>RUKRN23</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Ukraine Situation Regional Refugee Response Plan 2023</t>
         </is>
@@ -1638,7 +1633,7 @@
           <t>UKRAINE-SITUATION-2023</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Ukraine Situation, Supplementary Appeal, 2023</t>
         </is>
@@ -1665,7 +1660,7 @@
           <t>RUKRN23</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Ukraine Situation Regional Refugee Response Plan 2023</t>
         </is>
@@ -1697,7 +1692,7 @@
           <t>UKRAINE-SITUATION-2023</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Ukraine Situation, Supplementary Appeal, 2023</t>
         </is>
@@ -1729,7 +1724,7 @@
           <t>UKRAINE-SITUATION-2023</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Ukraine Situation, Supplementary Appeal, 2023</t>
         </is>
@@ -1756,7 +1751,7 @@
           <t>RUKRN23</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Ukraine Situation Regional Refugee Response Plan 2023</t>
         </is>
@@ -1788,7 +1783,7 @@
           <t>UKRAINE-SITUATION-2023</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Ukraine Situation, Supplementary Appeal, 2023</t>
         </is>
@@ -1820,7 +1815,7 @@
           <t>UKRAINE-SITUATION-2023</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Ukraine Situation, Supplementary Appeal, 2023</t>
         </is>
@@ -1852,7 +1847,7 @@
           <t>UKRAINE-SITUATION-2023</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Ukraine Situation, Supplementary Appeal, 2023</t>
         </is>
@@ -1884,7 +1879,7 @@
           <t>2023-EARTHQUAKE-EMERGENCY-RESPONSE</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Syria and Türkiye Earthquake Emergency Supplementary Appeal</t>
         </is>
@@ -1911,7 +1906,7 @@
           <t>EQ-2023-000015-TUR</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Türkiye: Earthquake</t>
         </is>
@@ -1938,7 +1933,7 @@
           <t>FTUR23</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Türkiye Earthquake Flash Appeal 2023</t>
         </is>
@@ -1965,7 +1960,7 @@
           <t>HUKR23</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Ukraine Humanitarian Response Plan 2023</t>
         </is>
@@ -1997,7 +1992,7 @@
           <t>UKRAINE-SITUATION-2023</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Ukraine Situation, Supplementary Appeal, 2023</t>
         </is>
@@ -2024,7 +2019,7 @@
           <t>RRSDN23</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Sudan Emergency: Regional Refugee Response Plan 2023</t>
         </is>
@@ -2056,7 +2051,7 @@
           <t>SUDAN-EMERGENCY-2023</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Sudan Emergency, UNHCR Supplementary Appeal, May-October 2023</t>
         </is>
@@ -2088,7 +2083,7 @@
           <t>2023-EARTHQUAKE-EMERGENCY-RESPONSE</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Syria and Türkiye Earthquake Emergency Supplementary Appeal</t>
         </is>
@@ -2120,7 +2115,7 @@
           <t>2023-EARTHQUAKE-EMERGENCY-RESPONSE</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Syria and Türkiye Earthquake Emergency Supplementary Appeal</t>
         </is>
@@ -2147,7 +2142,7 @@
           <t>EQ-2023-000015-SYR</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>Syria: Earthquake</t>
         </is>
@@ -2174,7 +2169,7 @@
           <t>FSYR23</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>Syria Earthquake Flash Appeal 2023</t>
         </is>
@@ -2201,7 +2196,7 @@
           <t>HSYR23</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>Syrian Arab Republic Humanitarian Response Plan 2023</t>
         </is>
@@ -2228,7 +2223,7 @@
           <t>HYEM23</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>Yemen Humanitarian Response Plan 2023</t>
         </is>
@@ -2255,7 +2250,7 @@
           <t>RDRCRRP23</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>Democratic Republic of the Congo Regional Refugee Response Plan 2023</t>
         </is>
@@ -2282,7 +2277,7 @@
           <t>HCOD23</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>République Démocratique du Congo Plan de Réponse Humanitaire 2023</t>
         </is>
@@ -2309,7 +2304,7 @@
           <t>RETHKENUGA23</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>South Sudan Regional Refugee Response Plan 2023</t>
         </is>
@@ -2336,7 +2331,7 @@
           <t>RDRCRRP23</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>Democratic Republic of the Congo Regional Refugee Response Plan 2023</t>
         </is>
@@ -2363,7 +2358,7 @@
           <t>HMOZ23</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>Mozambique Humanitarian Response Plan 2023</t>
         </is>
@@ -2390,7 +2385,7 @@
           <t>RDRCRRP23</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>Democratic Republic of the Congo Regional Refugee Response Plan 2023</t>
         </is>
@@ -2417,7 +2412,7 @@
           <t>HBFA23</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>Burkina Faso Plan de Réponse Humanitaire 2023</t>
         </is>
@@ -2444,7 +2439,7 @@
           <t>HCAF23</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>République Centrafricaine Plan de Réponse Humanitaire 2023</t>
         </is>
@@ -2471,7 +2466,7 @@
           <t>RETHKENUGA23</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>South Sudan Regional Refugee Response Plan 2023</t>
         </is>
@@ -2498,7 +2493,7 @@
           <t>RRSDN23</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>Sudan Emergency: Regional Refugee Response Plan 2023</t>
         </is>
@@ -2530,7 +2525,7 @@
           <t>SUDAN-EMERGENCY-2023</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>Sudan Emergency, UNHCR Supplementary Appeal, May-October 2023</t>
         </is>
@@ -2557,7 +2552,7 @@
           <t>HCMR23</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>Cameroon Humanitarian Response Plan 2023</t>
         </is>
@@ -2584,7 +2579,7 @@
           <t>HMLI23</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>Mali Plan de Réponse Humanitaire 2023</t>
         </is>
@@ -2611,7 +2606,7 @@
           <t>HNER23</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>Niger Plan de Réponse Humanitaire 2023</t>
         </is>
@@ -2638,7 +2633,7 @@
           <t>HNGA23</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>Nigeria Humanitarian Response Plan 2023</t>
         </is>
@@ -2665,7 +2660,7 @@
           <t>HTCD23</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>Tchad Plan de Réponse Humanitaire 2023</t>
         </is>
@@ -2692,7 +2687,7 @@
           <t>RRSDN23</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>Sudan Emergency: Regional Refugee Response Plan 2023</t>
         </is>
@@ -2724,7 +2719,7 @@
           <t>SUDAN-EMERGENCY-2023</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>Sudan Emergency, UNHCR Supplementary Appeal, May-October 2023</t>
         </is>
